--- a/intents.xlsx
+++ b/intents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L.P.SAKTHI KIRUTHIKA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_project\FOSS\learnmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C16DFF-C010-4D28-82A0-640E97FED6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07202CC4-5E40-4C34-8B7C-E44E407738F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,1041 +20,1047 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="345">
-  <si>
-    <t>abstraction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+  <si>
+    <t>Explain data abstraction.</t>
+  </si>
+  <si>
+    <t>What is a syntax error</t>
+  </si>
+  <si>
+    <t>Explain program documentation. Why is it important?</t>
   </si>
   <si>
     <t>Data abstraction is a technique used in computer programming to separate the implementation details of a data type from its interface, allowing the implementation to be changed without affecting the code that uses it. This is often achieved through the use of abstract data types (ADTs), which are defined by the operations they support rather than their specific implementation, or through the use of interfaces and classes in object-oriented programming languages. Data abstraction helps to reduce the complexity of software systems by allowing code to be written in a modular and flexible way and by hiding the underlying details of data types from the user.</t>
   </si>
   <si>
-    <t>error</t>
+    <t>What is software testing?</t>
   </si>
   <si>
     <t>A syntax error is an error in the structure of a programming language's code. It occurs when the code does not conform to the rules of the programming language's syntax. Syntax errors can occur for a variety of reasons, such as using the wrong punctuation, omitting required elements, or using an incorrect keyword. Syntax errors are usually detected by a compiler or interpreter when the code is being compiled or executed, and they can prevent the code from running correctly. To fix a syntax error, the code must be revised to conform to the correct syntax of the programming language.</t>
   </si>
   <si>
-    <t>documentation</t>
+    <t>How do you explain a data structure?</t>
   </si>
   <si>
     <t>Program documentation is written information that describes the design and functionality of a computer program. It can include information about the purpose of the program, the structure of the code, the algorithms used, and the input and output data. Program documentation is important because it helps to make the code easier to understand and maintain. It can be used to document the design decisions made during the development process, which can be helpful for future developers working on the same codebase. Program documentation can also be used as a reference for using the program, and can be helpful for users who are unfamiliar with the code. Overall, program documentation helps to improve the quality and reliability of the code, and makes it easier to modify and update in the future.</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
     <t>Software testing is the process of evaluating a software system or its component(s) with the intent of finding whether it satisfies the specified requirements or not. Software testing can be done manually or with the use of automated tools. It helps to identify errors, gaps, or missing requirements in the software. There are various types of software testing, including unit testing, integration testing, system testing, and acceptance testing, each of which has a specific focus and purpose. Software testing is an important part of the software development process because it helps to ensure that the software is of high quality and fit for its intended purpose.</t>
   </si>
   <si>
-    <t>datastructure</t>
-  </si>
-  <si>
     <t>A data structure is a way of organizing and storing data in a computer so that it can be accessed and modified efficiently. Different types of data structures are suited to different kinds of applications, and some are highly specialized to specific tasks. Some common data structures include arrays, linked lists, stacks, queues, trees, and graphs. Data structures are an important part of computer science because they provide a means of organizing and storing data in a way that is efficient and easy to use. They are used in many areas of computing, including operating systems, database management systems, and computer networking.</t>
   </si>
   <si>
-    <t>bst</t>
+    <t>Explain what a binary search tree is.</t>
   </si>
   <si>
     <t>A binary search tree (BST) is a tree-based data structure in which each node has at most two children and all the nodes in the left subtree of a node have a value less than the node's value, and all the nodes in the right subtree have a value greater than the node's value. This structure allows for fast searching, insertion, and deletion of elements. Binary search trees are often used to store data that needs to be retrieved quickly, such as in the implementation of a dictionary or set data type. They are also used in many other applications, such as for storing and organizing data in databases and for optimizing search algorithms.</t>
   </si>
   <si>
-    <t>dynamic</t>
+    <t>What are dynamic data structures?</t>
   </si>
   <si>
     <t>Dynamic data structures are data structures that can change in size during the execution of a program. This is in contrast to static data structures, which have a fixed size that is determined when the program is compiled. Dynamic data structures are often implemented using pointers, which allow them to allocate and deallocate memory as needed. Some common dynamic data structures include linked lists, stacks, queues, and trees. Dynamic data structures are useful because they can adapt to changing data needs and do not require the programmer to know the size of the data in advance. However, they can be more complex to implement and may have slower performance than static data structures in some cases.</t>
   </si>
   <si>
-    <t>dll</t>
+    <t>Can you explain doubly linked list?</t>
   </si>
   <si>
     <t>A doubly linked list is a linear data structure in which each element is a node that contains a value and two pointers. One pointer points to the previous element in the list, and the other pointer points to the next element in the list. This allows for traversal of the list in both directions. Doubly linked lists are often used when it is necessary to efficiently insert or delete elements from the middle of the list, as they allow for easy manipulation of the pointers. They can also be used to implement stacks and queues. However, doubly linked lists require more memory than some other data structures because each node requires two pointers, rather than just one.</t>
   </si>
   <si>
-    <t>lr</t>
+    <t>What is logistic regression?</t>
   </si>
   <si>
     <t>In machine learning, logistic regression is a type of algorithm used to classify data points into one of two categories. It is a supervised learning algorithm, meaning it requires a labeled dataset to train on. Given a set of input features and a label indicating which category the data point belongs to, the algorithm learns a function that maps the input features to the label. Once trained, the model can be used to predict the label for new, unseen data points. Logistic regression is a popular choice for binary classification problems because it is relatively simple to implement and interpret, and it tends to perform well on a wide range of datasets. It uses sigmoid function as an activation function</t>
   </si>
   <si>
-    <t>dt</t>
+    <t>Describe decision tree</t>
   </si>
   <si>
     <t>A decision tree is a type of machine learning algorithm that is used for classification and regression tasks. It is a tree-like model of decisions and their possible consequences, represented graphically. Each internal node of the tree represents a decision based on the value of a feature, and each leaf node represents a predicted outcome. The tree is constructed by learning from a training dataset, which includes input features and labels indicating the correct category for each data point. To make a prediction for a new, unseen data point, the algorithm follows the path down the tree, making decisions based on the values of the input features and ultimately arriving at a prediction for the label. Decision trees are widely used because they are easy to understand and interpret, and they can handle both categorical and numerical data.</t>
   </si>
   <si>
-    <t>cm</t>
+    <t>Explain confusion matrix</t>
   </si>
   <si>
     <t>A confusion matrix is a table that is used to evaluate the performance of a classification algorithm. It is a summary of the predictions made by the algorithm, with the actual class labels on one axis and the predicted class labels on the other. The table shows the number of times each combination of actual and predicted labels occurred. The confusion matrix can be used to calculate various performance metrics, such as precision, recall, and accuracy, which give an indication of how well the algorithm is able to predict the correct class labels. It is a useful tool for understanding the strengths and weaknesses of a classification algorithm and for identifying areas for improvement.</t>
   </si>
   <si>
-    <t>bias</t>
+    <t>What is bias in data science?</t>
   </si>
   <si>
     <t>Bias in data science refers to the systematic error or deviation of a model or algorithm from the true underlying relationship it is attempting to model. Bias can occur for a variety of reasons, such as a poorly chosen model, incomplete or unrepresentative data, or incorrect assumptions about the data. Bias can have negative consequences, such as leading to inaccurate or unfair predictions or decisions. For example, a biased model might consistently overestimate or underestimate the value of a certain variable, or it might unfairly favor certain groups over others. It is important to identify and address bias in data science to ensure that models and algorithms are accurate and fair. This can be done through careful data selection and preprocessing, model selection and evaluation, and ongoing monitoring and testing.</t>
   </si>
   <si>
-    <t>dr</t>
+    <t>What is dimensionality reduction?</t>
   </si>
   <si>
     <t>Dimensionality reduction is a technique used to reduce the number of dimensions (features) in a dataset while preserving as much of the information as possible. It is often used as a preprocessing step before applying machine learning algorithms, as it can help to simplify data, reduce computational complexity, and improve the performance of the model. There are several methods for dimensionality reduction, including feature selection, feature extraction, and manifold learning. Dimensionality reduction is an important tool for working with high-dimensional datasets, which can be difficult to analyze and visualize, and can help to reduce overfitting, improve the interpretability of the results, and reduce the computational cost of training the model.</t>
   </si>
   <si>
-    <t>dbms</t>
+    <t>What is DBMS?</t>
   </si>
   <si>
     <t>A database management system (DBMS) is a software application that is used to create, manage, and manipulate databases. A database is a collection of data that is organized in a specific way, allowing for efficient retrieval and manipulation of the data. A DBMS provides a set of tools and interfaces that allow users to create, modify, and query the database, as well as to control access to the data and maintain the integrity and consistency of the data. DBMSs are widely used in a variety of applications, including financial systems, customer relationship management systems, and online shopping systems. They are an essential component of many business and organization systems, as they allow for the efficient storage and management of large amounts of data.</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>Explain normalization and de-normalization in databases.</t>
   </si>
   <si>
     <t>Normalization is the process of organizing a database in a way that minimizes redundancy and dependency. It involves breaking down a large table into smaller, more specialized tables, and establishing relationships between them using foreign keys. The goal of normalization is to reduce data redundancy, improve data integrity, and make it easier to modify the database structure. De-normalization is the process of reversing normalization, by combining tables or adding redundant data back into the database. It is often done to improve the performance of certain types of queries, at the expense of increased redundancy and a more complex database structure. De-normalization is used in cases where the benefits of faster query performance outweigh the drawbacks of increased data redundancy and complexity. Both normalization and de-normalization are important concepts in database design, and the appropriate approach depends on the specific requirements and goals of the database.</t>
   </si>
   <si>
-    <t>bcnf</t>
+    <t>What is BCNF? How it is different from 3NF?</t>
   </si>
   <si>
     <t>BCNF (Boyce-Codd Normal Form) is a normal form in database design that is used to ensure that a database is free of certain types of anomalies and dependency issues. It requires that every determinant in the database be a candidate key, which is a set of attributes that uniquely identifies each row in a table. BCNF is more restrictive than 3NF (Third Normal Form), which only requires that the database be in 2NF (Second Normal Form) and that all the non-key attributes in the database be fully dependent on the primary key. BCNF can result in a more complex database structure, with more tables and foreign keys, but it can help to ensure that the database is well-organized and easy to maintain and modify.</t>
   </si>
   <si>
-    <t>relation</t>
+    <t>What is a degree of relation in DBMS?</t>
   </si>
   <si>
     <t>The degree of a relation in a database management system (DBMS) refers to the number of attributes it has. A relation with a single attribute is called a unary relation, a relation with two attributes is called a binary relation, and a relation with three or more attributes is called a ternary or higher-order relation. The degree of a relation is an important concept in database design, as it affects the structure and organization of the data.</t>
   </si>
   <si>
-    <t>ai</t>
+    <t>Give an explanation on the difference between strong AI and weak AI?</t>
   </si>
   <si>
     <t>Strong AI, also known as artificial general intelligence, refers to artificial intelligence systems that have the ability to perform any intellectual task that a human can. In other words, strong AI systems have a general and flexible intelligence that allows them to adapt to and learn new tasks, rather than being specifically designed for a single task or set of tasks. Weak AI, also known as artificial narrow intelligence, refers to artificial intelligence systems that are designed for a specific task or set of tasks. These systems are not capable of adapting to new tasks or learning new skills. They are often designed to perform a specific function, such as recognizing faces in images or playing a game like chess. In summary, the main difference between strong AI and weak AI is the scope and flexibility of their intelligence. Strong AI systems are capable of adapting to and learning new tasks, while weak AI systems are limited to the specific tasks they were designed for.</t>
   </si>
   <si>
-    <t>expert</t>
+    <t>Define an expert system in AI?</t>
   </si>
   <si>
     <t>An expert system is a type of artificial intelligence (AI) system that is designed to mimic the decision-making abilities of a human expert in a particular domain. Expert systems are often used in fields where specialized knowledge is required, such as medicine, engineering, and finance. Expert systems typically consist of a knowledge base, which contains information and rules about the domain, and an inference engine, which uses the knowledge base to draw conclusions and make recommendations. The knowledge base is usually created by experts in the field, who input their knowledge and expertise into the system. The inference engine uses this knowledge to make decisions and provide recommendations based on a set of input data.</t>
   </si>
   <si>
-    <t>rnn</t>
+    <t>What Are recurrent neural networks?</t>
   </si>
   <si>
     <t>Recurrent neural networks (RNNs) are a type of artificial neural network that are designed to process sequential data. They are particularly useful for tasks that involve processing data with a temporal dimension, such as language translation, speech recognition, and time series prediction. RNNs are composed of units called neurons, which are connected together in a network and are able to pass information from one unit to the next. Unlike traditional neural networks, which process data in a feedforward manner, RNNs have feedback connections, which allow them to retain information from previous time steps and use it to process the current time step. This makes them well-suited for tasks that involve processing data with a temporal dimension, as they are able to consider the context and dependencies between time steps.</t>
   </si>
   <si>
-    <t>supervised</t>
+    <t>What is the difference between supervised and unsupervised machine learning?</t>
   </si>
   <si>
     <t>Supervised machine learning and unsupervised machine learning are two categories of machine learning algorithms that are used to train models on data. In supervised machine learning, the training data includes both input features and labeled output values. The goal of supervised learning is to train a model to make predictions about the output values given the input features. This requires the availability of labeled data, which can be used to train the model and evaluate its performance. Examples of supervised learning tasks include classification, regression, and prediction. In unsupervised machine learning, the training data includes only input features and no labeled output values. The goal of unsupervised learning is to find patterns and relationships in the data, rather than making predictions about specific output values. This requires the model to learn from the data itself, without the guidance of labeled outputs. Examples of unsupervised learning tasks include clustering and dimensionality reduction. In summary, the main difference between supervised and unsupervised learning is the availability of labeled data. Supervised learning requires labeled data, while unsupervised learning does not.</t>
   </si>
   <si>
-    <t>hyperparameters</t>
+    <t>What do you understand by the hyperparameter?</t>
   </si>
   <si>
     <t>Hyperparameters are parameters that are set before training a machine learning model. They are not learned from the training data, but rather are set manually by the developer. Hyperparameters control the behavior and performance of the model, and can have a significant impact on the accuracy and generalization of the model. Examples of hyperparameters include the learning rate for gradient descent, the regularization coefficient, the number of hidden units in a neural network, and the depth of a decision tree. These hyperparameters are set before training the model, and their values are used to control the training process and the resulting model. Hyperparameter optimization is the process of finding the best values for the hyperparameters of a machine learning model. This can be done manually, through trial and error, or using automated methods such as grid search or random search. Hyperparameter optimization is an important step in the process of developing a machine learning model, as it can have a significant impact on the performance of the model.</t>
   </si>
   <si>
-    <t>bn</t>
+    <t>What are bayesian networks?</t>
   </si>
   <si>
     <t>Bayesian networks are a type of probabilistic graphical model that represent the dependencies between different variables. They are used to represent and reason about uncertain or probabilistic information. Bayesian networks consist of a directed acyclic graph (DAG), in which the nodes represent variables and the edges represent the dependencies between the variables. The variables can be binary (e.g., true/false) or continuous (e.g., real numbers). Each variable is associated with a probability distribution that describes its possible values and the likelihood of each value occurring. The edges in the graph represent the relationships between the variables, and the probabilities in the distributions are used to capture the dependencies between the variables. Bayesian networks are useful for representing complex systems with many variables and dependencies, and can be used to make predictions about the values of variables given the values of other variables. They are commonly used in fields such as machine learning, artificial intelligence, and data analysis.</t>
   </si>
   <si>
-    <t>encryption</t>
+    <t>What is encryption?</t>
+  </si>
+  <si>
+    <t>What is an API?</t>
+  </si>
+  <si>
+    <t>What is cloud computing?</t>
   </si>
   <si>
     <t>Encryption is the process of converting plain text or data into a coded or unreadable form, often to prevent unauthorized access or tampering. It is commonly used to secure data transmission over the internet or to protect sensitive information stored in databases or other digital systems. There are two types of encryption: symmetric and asymmetric. In symmetric encryption, the same key is used for both encryption and decryption, while in asymmetric encryption, a pair of keys (public and private) is used, with one key used for encryption and the other for decryption. Common encryption algorithms include AES, RSA, and DES.</t>
   </si>
   <si>
-    <t>API</t>
+    <t>What is virtual reality?</t>
   </si>
   <si>
     <t>An API (Application Programming Interface) is a set of rules and protocols that allow different software applications to communicate and interact with each other. It defines the methods, data formats, and conventions that developers can use to build software applications that can integrate with other applications or services. There are several types of APIs, including: 1) Web APIs, which allow communication between web-based applications and services; 2) Operating system APIs, which provide access to system-level functionality, such as file system operations or device drivers; 3) Library APIs, which are collections of pre-written code that developers can use to perform common tasks, such as database operations or image processing; and 4) Hardware APIs, which enable software applications to interact with hardware devices, such as sensors or printers.</t>
   </si>
   <si>
-    <t>cloud computing</t>
+    <t>What is cybersecurity?</t>
   </si>
   <si>
     <t>Cloud computing is the delivery of computing resources, such as computing power, storage, and software, over the internet on a pay-as-you-go basis. Instead of hosting and managing these resources locally, users can access them remotely from a cloud service provider's data centers. The benefits of cloud computing include: 1) Cost savings, as users can avoid upfront investments in hardware and infrastructure; 2) Scalability, as users can easily adjust their resources based on their needs; 3) Flexibility, as users can access their resources from anywhere with an internet connection; and 4) Reliability, as cloud service providers typically offer redundant systems and backup options. There are three main types of cloud computing models: 1) Infrastructure as a Service (IaaS), which provides virtualized computing resources over the internet; 2) Platform as a Service (PaaS), which offers a platform and tools for developing and deploying applications; and 3) Software as a Service (SaaS), which delivers software applications over the internet.</t>
   </si>
   <si>
-    <t>virtual reality</t>
+    <t>What is a database?</t>
   </si>
   <si>
     <t>Virtual reality (VR) is a computer-generated simulation of a three-dimensional environment that can be interacted with using specialized hardware, such as headsets or controllers. It creates an immersive experience that can simulate real-world or imaginary environments. Applications of virtual reality include gaming, training simulations, therapy, architecture, and entertainment.</t>
   </si>
   <si>
-    <t>cybersecurity</t>
+    <t>What is programming?</t>
   </si>
   <si>
     <t>Cybersecurity is the practice of protecting computers, servers, networks, and data from unauthorized access, use, disclosure, disruption, or destruction. It is important to safeguard sensitive information, prevent data breaches, and protect against cyber attacks. Common cybersecurity threats include malware, phishing, ransomware, social engineering, and insider threats.</t>
   </si>
   <si>
-    <t>database</t>
+    <t>What is networking?</t>
   </si>
   <si>
     <t>A database is a structured collection of data that is organized, stored, and managed in a computer system. Types of databases include relational databases, object-oriented databases, and NoSQL databases. Benefits of using databases include efficient data storage and retrieval, data integrity, data consistency, and support for concurrent access by multiple users.</t>
   </si>
   <si>
-    <t>programming</t>
+    <t>What is data science?</t>
   </si>
   <si>
     <t>Programming is the process of creating computer software by writing instructions that can be executed by a computer. Different programming languages include Python, Java, C++, and JavaScript. Best practices in programming include writing clean and readable code, using version control, following coding standards, and testing and debugging thoroughly.</t>
   </si>
   <si>
-    <t>networking</t>
+    <t>What is the internet of things (IoT)?</t>
   </si>
   <si>
     <t>Networking is the process of connecting and sharing data between devices, systems, or computers. Types of networks include local area networks (LANs), wide area networks (WANs), and wireless networks. Advantages of networking include easy sharing of resources, improved communication, enhanced collaboration, and increased efficiency.</t>
   </si>
   <si>
-    <t>data science</t>
+    <t>What is blockchain?</t>
   </si>
   <si>
     <t>Data science is a multidisciplinary field that involves extracting insights and knowledge from data using various techniques and tools. The data science process typically includes steps such as data collection, data cleaning, data exploration, data analysis, and data visualization. Tools used in data science include programming languages like Python or R, data visualization libraries, statistical software, and machine learning frameworks.</t>
   </si>
   <si>
-    <t>internet of things</t>
+    <t>What are neural networks?</t>
   </si>
   <si>
     <t>The internet of things (IoT) refers to the network of interconnected devices that can communicate and exchange data with each other over the internet. IoT devices can include smart home devices, wearables, industrial sensors, and connected vehicles. Applications of IoT include smart cities, healthcare monitoring, industrial automation, and smart agriculture.</t>
   </si>
   <si>
-    <t>blockchain</t>
+    <t>What is natural language processing (NLP)?</t>
   </si>
   <si>
     <t>Blockchain is a distributed and decentralized digital ledger that records transactions in a secure and transparent manner. It uses cryptography and consensus algorithms to ensure data integrity and prevent tampering. Advantages of blockchain include increased security, transparency, efficiency, and reduced intermediaries in transactions.</t>
   </si>
   <si>
-    <t>neural networks</t>
+    <t>What is big data?</t>
   </si>
   <si>
     <t>Neural networks are a type of machine learning model inspired by the human brain that can process complex patterns and make predictions. Artificial neural networks consist of layers of interconnected nodes or neurons that receive input, apply activation functions, and produce output. Neural networks learn through a process called backpropagation, where errors in predictions are used to update the weights and biases of the network in order to improve its performance.</t>
   </si>
   <si>
-    <t>natural language processing</t>
+    <t>What is DevOps?</t>
   </si>
   <si>
     <t>Natural language processing (NLP) is a field of study that focuses on enabling computers to understand, interpret, and generate human language. NLP techniques include text analysis, sentiment analysis, named entity recognition, and machine translation. Applications of NLP include language translation, chatbots, voice assistants, and sentiment analysis in social media.</t>
   </si>
   <si>
-    <t>big data</t>
+    <t>What is virtual reality (VR)?</t>
   </si>
   <si>
     <t>Big data refers to large and complex data sets that cannot be easily processed or analyzed with traditional data processing methods. The 3Vs of big data are volume, velocity, and variety, which represent the characteristics of big data. Big data is analyzed using techniques such as data mining, machine learning, and distributed computing frameworks like Hadoop and Spark.</t>
   </si>
   <si>
-    <t>DevOps</t>
+    <t>What is computer architecture?</t>
   </si>
   <si>
     <t>DevOps is a software development approach that combines development (Dev) and operations (Ops) to streamline the software delivery process. The principles of DevOps include continuous integration, continuous delivery, and automation of software development and deployment. DevOps improves software development by promoting collaboration, reducing errors, and accelerating the release cycle, resulting in faster delivery of high-quality software products.</t>
   </si>
   <si>
+    <t>What is digital logic design?</t>
+  </si>
+  <si>
     <t>Virtual reality (VR) is a simulated experience that can be similar to or completely different from the real world, typically created using computer technology. Types of VR systems include desktop-based VR, mobile-based VR, and headset-based VR. Applications of VR include gaming, education and training, healthcare, architecture and design, and entertainment.</t>
   </si>
   <si>
-    <t>computer architecture</t>
+    <t>What is JavaScript?</t>
   </si>
   <si>
     <t>Computer architecture refers to the design and organization of computer systems, including the structure and behavior of hardware and software components. The Von Neumann architecture is a widely used computer architecture that separates memory and processing units, allowing instructions and data to be stored in the same memory. Components of a CPU include the control unit, arithmetic logic unit (ALU), registers, and cache.</t>
   </si>
   <si>
-    <t>digital logic design</t>
+    <t>What is React?</t>
   </si>
   <si>
     <t>Digital logic design involves designing and analyzing circuits that use digital signals to represent and process information. Logic gates are basic building blocks of digital circuits that perform logic operations, such as AND, OR, and NOT. Flip-flops and latches are sequential logic circuits used to store and synchronize data in digital systems.</t>
   </si>
   <si>
-    <t>javascript</t>
+    <t>What is the difference between conventional and object-oriented programming?</t>
   </si>
   <si>
     <t>JavaScript is a widely used programming language for building dynamic websites and web applications. JavaScript data types include primitive types such as numbers, strings, booleans, null, and undefined, as well as complex types such as objects and arrays. JavaScript frameworks are pre-written libraries or collections of reusable code that provide a structure and set of tools for developing web applications, such as Angular, React, and Vue.</t>
   </si>
   <si>
-    <t>react</t>
+    <t>What is data abstraction?</t>
   </si>
   <si>
     <t>React is a popular JavaScript library for building user interfaces, particularly for web applications. React components are the building blocks of a React application, representing different parts of the user interface. Components can be reused and combined to create complex user interfaces. React hooks are functions that allow state and lifecycle features to be used in functional components, such as useState for managing component state and useEffect for handling side effects.</t>
   </si>
   <si>
-    <t>oop</t>
-  </si>
-  <si>
     <t>Conventional programming is a procedural approach where programs are organized as a sequence of tasks or functions, while object-oriented programming (OOP) is a paradigm that uses objects as the fundamental building blocks of a program. In OOP, data and functions (methods) are encapsulated together in objects, allowing for better modularity, reusability, and code organization. OOP also supports concepts such as inheritance, polymorphism, and encapsulation, which are not present in conventional programming.</t>
   </si>
   <si>
-    <t>data abstraction</t>
+    <t>What are objects, classes, and methods in programming?</t>
   </si>
   <si>
     <t>Data abstraction is a technique used in programming to hide the implementation details of data types and only expose their essential properties and behaviors. It allows programmers to create abstract data types (ADTs) that define the interface and operations of a data type without revealing how it is implemented. This separation of interface from implementation allows for better code maintainability, flexibility, and modularity.</t>
   </si>
   <si>
-    <t>objects, classes, and methods</t>
+    <t>What are constructors in programming?</t>
   </si>
   <si>
     <t>In object-oriented programming (OOP), objects are instances of a class, which is a blueprint or template for creating objects. A class is a user-defined data type that encapsulates data (attributes) and functions (methods) that operate on that data. Methods are the actions or behaviors that objects of a class can perform. Objects are created from a class using a process called instantiation, and methods are called on objects to perform specific tasks.</t>
   </si>
   <si>
-    <t>constructors</t>
+    <t>What are destructors in programming?</t>
   </si>
   <si>
     <t>Constructors are special methods in object-oriented programming that are used to initialize objects of a class. They are called automatically when an object is created from a class and are used to set the initial values of the attributes of the object. Constructors have the same name as the class and do not have any return type. They can be used to set default values, allocate memory, and perform other initialization tasks for objects.</t>
   </si>
   <si>
-    <t>destructors</t>
+    <t>What is operator overloading in programming?</t>
   </si>
   <si>
     <t>Destructors are special methods in object-oriented programming that are used to clean up resources and perform cleanup operations before an object is destroyed or deleted. They are called automatically when an object goes out of scope or is explicitly deleted. Destructors have the same name as the class, preceded by a tilde (~), and do not have any return type. They can be used to free memory, close file handles, and perform other cleanup tasks for objects.</t>
   </si>
   <si>
-    <t>operator overloading</t>
+    <t>What are class and function templates in generic programming?</t>
   </si>
   <si>
     <t>Operator overloading is a feature in some programming languages that allows operators (such as +, -, *, /) to have different meanings or behaviors depending on the context or operands they are used with. It allows programmers to define how operators should behave when applied to objects of user-defined classes, in addition to their usual meanings for built-in types. Operator overloading can make code more concise and expressive, but should be used judiciously to avoid confusion.</t>
   </si>
   <si>
-    <t>generic programming</t>
+    <t>What is inheritance in object-oriented programming?</t>
   </si>
   <si>
     <t>Class and function templates are features in some programming languages that allow the creation of generic, reusable code that can work with different data types. Class templates are used to define generic classes that can have placeholders for data types, which are specified when objects of the class are created. Function templates are used to define generic functions that can operate on different data types, which are inferred or explicitly specified during function calls. Templates provide flexibility and code reuse in generic programming.</t>
   </si>
   <si>
-    <t>inheritance</t>
+    <t>What is multiple inheritance in object-oriented programming?</t>
   </si>
   <si>
     <t>Inheritance is a concept in object-oriented programming (OOP) where a class can inherit properties and behaviors from another class. The class that is inherited from is called the parent or base class, and the class that inherits from it is called the child or derived class. Inheritance allows for code reuse and promotes code organization and modularity. The child class can inherit attributes, methods, and other members of the parent class, and can also override or extend them to customize its behavior.</t>
   </si>
   <si>
-    <t>multiple inheritance</t>
+    <t>What is polymorphism in object-oriented programming?</t>
   </si>
   <si>
     <t>Multiple inheritance is a feature in some object-oriented programming languages that allows a class to inherit properties and behaviors from more than one parent class. This means that a child class can inherit attributes, methods, and other members from multiple classes. Multiple inheritance can provide more flexibility in designing class hierarchies and code reuse, but it can also lead to complexities and ambiguities. Some programming languages support multiple inheritance, while others do not.</t>
   </si>
   <si>
-    <t>polymorphism</t>
+    <t>What is aggregation in object-oriented programming?</t>
   </si>
   <si>
     <t>Polymorphism is a concept in object-oriented programming (OOP) where objects of different classes can be treated as if they are of the same type. This allows for writing generic code that can work with objects of different classes, as long as they implement the same interface or have the same behavior. Polymorphism promotes code flexibility, reusability, and extensibility. Polymorphism can be achieved through interfaces, abstract classes, virtual functions, and other mechanisms in OOP.</t>
   </si>
   <si>
-    <t>aggregation</t>
+    <t>What is program debugging and testing?</t>
   </si>
   <si>
     <t>Aggregation is a relationship between objects in object-oriented programming (OOP) where one object contains or is composed of other objects, but the contained objects can exist independently of the containing object. Aggregation is a form of association, where objects are connected in a whole-part relationship. Aggregation allows for creating complex objects by combining simpler objects, and it promotes code reuse and modularity. Aggregation is commonly used for modeling relationships such as has-a or part-of between objects.</t>
   </si>
   <si>
-    <t>program debugging and testing</t>
+    <t>What is event logging in software development?</t>
   </si>
   <si>
     <t>Program debugging is the process of identifying and fixing errors or bugs in a software program. It involves using debugging tools, techniques, and strategies to trace and isolate issues in the code. Program testing is the process of evaluating a software program to ensure that it behaves as expected and meets its intended requirements. It involves designing and executing tests, analyzing test results, and verifying the correctness and reliability of the program.</t>
   </si>
   <si>
-    <t>event logging</t>
+    <t>What is propositional logic?</t>
   </si>
   <si>
     <t>Event logging is a mechanism in software development that involves capturing and storing information about events or actions that occur during the execution of a program. Events can include errors, warnings, user interactions, system events, and other relevant information. Event logging is commonly used for monitoring, troubleshooting, and analyzing the behavior and performance of software systems. It can provide valuable insights into the runtime behavior of a program and help in identifying and resolving issues.</t>
   </si>
   <si>
-    <t>propositional logic</t>
+    <t>What are logical connectives in propositional logic?</t>
   </si>
   <si>
     <t>Propositional logic, also known as propositional calculus or sentential logic, is a branch of mathematical logic that deals with the study of logical relationships between propositions or statements. Propositions are expressions that are either true or false, and they can be combined using logical connectives such as AND, OR, NOT, and IMPLIES to form compound propositions. Propositional logic is used in formal reasoning, deductive reasoning, and symbolic logic to analyze and evaluate the truth values of logical statements.</t>
   </si>
   <si>
-    <t>logical connectives</t>
+    <t>What are truth tables in propositional logic?</t>
   </si>
   <si>
     <t>Logical connectives are symbols or operators used in propositional logic to combine or modify propositions or statements. Common logical connectives include AND (∧), OR (∨), NOT (¬), IMPLIES (→), EQUIVALENT (↔), and others. These connectives are used to create compound propositions or logical expressions by specifying the relationship between propositions, such as conjunction (AND), disjunction (OR), negation (NOT), implication (IMPLIES), and equivalence (EQUIVALENT). Logical connectives are the building blocks of propositional logic and are used to create complex logical expressions.</t>
   </si>
   <si>
-    <t>truth tables</t>
+    <t>What is universal quantification in predicate logic?</t>
   </si>
   <si>
     <t>Truth tables are tables used in propositional logic to represent and analyze the truth values of logical propositions or statements. A truth table lists all possible combinations of truth values for the propositions in a logical expression and shows the resulting truth value of the expression for each combination. Truth tables are used to evaluate the validity, consistency, and satisfiability of logical expressions, and to determine the truth values of complex propositions based on the truth values of their constituent propositions. Truth tables are an important tool in formal logic for reasoning about the truthfulness of logical statements.</t>
   </si>
   <si>
-    <t>universal quantification</t>
+    <t>What is existential quantification in predicate logic?</t>
   </si>
   <si>
     <t>Universal quantification is a concept in predicate logic that quantifies over all elements in a domain or set. It is denoted by the symbol ∀ (for all) and is used to express statements that are true for every member of a domain. For example, the statement ∀x P(x) means that the predicate P holds for all elements x in the domain. Universal quantification allows for generalization and abstraction in logic, allowing us to make statements that hold universally for all instances.</t>
   </si>
   <si>
-    <t>existential quantification</t>
+    <t>What is the rate of growth of algorithm complexity?</t>
   </si>
   <si>
     <t>Existential quantification is a concept in predicate logic that quantifies over at least one element in a domain or set. It is denoted by the symbol ∃ (there exists) and is used to express statements that are true for at least one member of a domain. For example, the statement ∃x P(x) means that there exists an element x in the domain for which the predicate P holds. Existential quantification allows for the existence of specific instances in logic, allowing us to make statements that assert the existence of certain elements.</t>
   </si>
   <si>
-    <t>rate of growth of complexity of algorithms</t>
+    <t>What are asymptotic notations?</t>
   </si>
   <si>
     <t>Rate of growth of algorithm complexity refers to how the running time or resource usage of an algorithm increases as input size grows. It is commonly represented using Big O notation, which describes the upper bound on worst-case time complexity. Understanding rate of growth is crucial in comparing algorithm efficiency.</t>
   </si>
   <si>
-    <t>asymptotic notations</t>
+    <t>What are time-space trade offs in algorithms?</t>
   </si>
   <si>
     <t>Asymptotic notations describe the upper and/or lower bounds on algorithm complexity. Common notations include Big O, Omega, and Theta notation. Big O describes the upper bound on worst-case time complexity, Omega describes the lower bound on best-case time complexity, and Theta describes both upper and lower bounds. They are used to analyze and compare algorithm efficiency.</t>
   </si>
   <si>
-    <t>time-space trade offs</t>
+    <t>What are common operations on strings?</t>
   </si>
   <si>
     <t>Time-space trade offs refer to the trade-off between the amount of time (or computational resources) an algorithm takes and the amount of memory (or space) it uses. In some cases, an algorithm may use more memory to reduce its running time, or vice versa. Finding the right balance between time and space usage is an important consideration in algorithm design and optimization.</t>
   </si>
   <si>
-    <t>operations on strings</t>
+    <t>What is word processing?</t>
   </si>
   <si>
     <t>Operations on strings typically include concatenation (joining), substring extraction, length calculation, searching, and modification (such as replacing characters or converting case). Strings are commonly used for handling text data in programming languages and have built-in functions or methods to perform these operations efficiently.</t>
   </si>
   <si>
-    <t>word processing</t>
+    <t>What are pattern matching algorithms?</t>
   </si>
   <si>
     <t>Word processing refers to the creation, editing, and formatting of documents containing text. Word processing software, such as Microsoft Word, Google Docs, or LibreOffice Writer, provides tools and features for creating and editing documents with various formatting options, such as fonts, styles, headers, footers, and more.</t>
   </si>
   <si>
-    <t>pattern matching algorithms</t>
+    <t>What are one-dimensional arrays?</t>
   </si>
   <si>
     <t>Pattern matching algorithms are used to find occurrences of a specific pattern within a larger sequence of data. They are commonly used in various applications such as text search, data retrieval, and image processing. Examples of pattern matching algorithms include naive pattern matching, Knuth-Morris-Pratt (KMP) algorithm, and Boyer-Moore algorithm. These algorithms are designed to efficiently search for patterns in large datasets.</t>
   </si>
   <si>
-    <t>one-dimensional arrays</t>
+    <t>What are multi-dimensional arrays?</t>
   </si>
   <si>
     <t>One-dimensional arrays are data structures that store a collection of elements in a linear sequence. They are commonly used to represent a list of items, such as numbers or strings, and can be accessed using an index. Searching and sorting algorithms, such as linear search, binary search, bubble sort, and insertion sort, can be applied to one-dimensional arrays to efficiently search and sort the elements.</t>
   </si>
   <si>
-    <t>multi-dimensional arrays</t>
+    <t>What are searching algorithms for arrays?</t>
   </si>
   <si>
     <t>Multi-dimensional arrays are data structures that store elements in more than one dimension, such as rows and columns. They are used to represent complex data structures, such as matrices or tables. Matrix multiplication is a common operation performed on multi-dimensional arrays, where two matrices are multiplied to obtain a new matrix. Sparse matrices, which contain mostly zero elements, are a special type of multi-dimensional arrays that require specialized algorithms for efficient storage and manipulation.</t>
   </si>
   <si>
-    <t>searching algorithms for arrays</t>
+    <t>What are sorting algorithms for arrays?</t>
   </si>
   <si>
     <t>Searching algorithms for arrays are techniques used to find the position or existence of a particular element in an array. Common searching algorithms include linear search, binary search, and hash-based search. Linear search involves iterating through each element of the array sequentially until the target element is found. Binary search, on the other hand, requires the array to be sorted and involves repeatedly dividing the search interval in half to narrow down the search. Hash-based search uses a hash function to compute the index of the target element, which allows for faster searches in large arrays.</t>
   </si>
   <si>
-    <t>sorting algorithms for arrays</t>
+    <t>What is matrix multiplication?</t>
   </si>
   <si>
     <t>Sorting algorithms for arrays are techniques used to rearrange the elements of an array in a particular order. Common sorting algorithms include bubble sort, selection sort, insertion sort, merge sort, and quick sort. Bubble sort compares adjacent elements in the array and swaps them if they are in the wrong order, repeatedly iterating through the array until it is sorted. Selection sort involves selecting the smallest or largest element in the unsorted portion of the array and moving it to its correct position. Insertion sort works by repeatedly inserting the next unsorted element into its correct position among the already sorted elements. Merge sort and quick sort are more efficient algorithms that use divide-and-conquer techniques to sort the array.</t>
   </si>
   <si>
-    <t>matrix multiplication</t>
+    <t>What are sparse matrices?</t>
   </si>
   <si>
     <t>Matrix multiplication is a mathematical operation that involves multiplying two matrices to obtain a new matrix. It is commonly used in various applications, such as graphics processing, scientific computing, and data analysis. Matrix multiplication requires matching dimensions between the two matrices, where the number of columns in the first matrix must be equal to the number of rows in the second matrix. The resulting matrix has dimensions that are the product of the dimensions of the original matrices. Matrix multiplication can be performed using various algorithms, such as the standard method, the Strassen algorithm for large matrices, and optimized algorithms for sparse matrices.</t>
   </si>
   <si>
-    <t>sparse matrices</t>
+    <t>What are stacks?</t>
   </si>
   <si>
     <t>Sparse matrices are matrices that contain mostly zero elements, where only a small fraction of the elements are non-zero. Sparse matrices are common in many real-world applications, such as network analysis, image processing, and recommendation systems. Storing and manipulating sparse matrices efficiently requires specialized algorithms that take advantage of their sparsity. Common techniques include compressed sparse row (CSR) format, compressed sparse column (CSC) format, and coordinate list (COO) format. These formats store only the non-zero elements and their indices, which can greatly reduce the memory and computational requirements for sparse matrix operations.</t>
   </si>
   <si>
-    <t>stacks</t>
+    <t>What are queues?</t>
   </si>
   <si>
     <t>A stack is a linear data structure that follows the Last-In, First-Out (LIFO) principle. It allows data to be added or removed only from the top, or the head, of the stack. Common stack operations include push (adding an element to the top of the stack), pop (removing the top element from the stack), and peek (viewing the top element without removing it). Stacks are used in many applications, such as function call stack, expression evaluation, and undo/redo functionality in software applications.</t>
   </si>
   <si>
-    <t>queues</t>
+    <t>What is recursion?</t>
   </si>
   <si>
     <t>A queue is a linear data structure that follows the First-In, First-Out (FIFO) principle. It allows data to be added at the rear, or the tail, of the queue and removed from the front, or the head, of the queue. Common queue operations include enqueue (adding an element to the rear of the queue), dequeue (removing the front element from the queue), and peek (viewing the front element without removing it). Queues are used in many applications, such as task scheduling, message passing, and printer queues.</t>
   </si>
   <si>
-    <t>recursion</t>
+    <t>What is Polish Notation?</t>
   </si>
   <si>
     <t>Recursion is a programming technique where a function calls itself in its own definition. It allows for solving complex problems by breaking them down into smaller, simpler subproblems that are solved recursively. Recursion can be used to solve problems that exhibit a divide and conquer or top-down approach, where a problem is divided into smaller subproblems until a base case is reached. Recursion can be powerful but should be used with caution to prevent infinite loops or stack overflow errors.</t>
   </si>
   <si>
-    <t>polish_notation</t>
+    <t>What is Quick-sort?</t>
   </si>
   <si>
     <t>Polish Notation, also known as Prefix Notation, is a mathematical notation where operators are placed before their operands. For example, in Polish Notation, the expression '+ 2 3' would represent the addition of 2 and 3. Polish Notation eliminates the need for parentheses and provides a unique and unambiguous way to represent mathematical expressions.</t>
   </si>
   <si>
-    <t>quick_sort</t>
+    <t>What are Deques?</t>
   </si>
   <si>
     <t>Quick-sort is a popular comparison-based sorting algorithm that uses a divide-and-conquer strategy to sort an array of elements. It selects a pivot element from the array, partitions the array into smaller subarrays based on the pivot, and recursively sorts the subarrays. Quick-sort has an average-case time complexity of O(n log n), making it efficient for large datasets. However, its worst-case time complexity is O(n^2) in the case of an already sorted or nearly sorted array.</t>
   </si>
   <si>
-    <t>deques</t>
+    <t>What are Priority Queues?</t>
   </si>
   <si>
     <t>A deque, short for double-ended queue, is a linear data structure that allows elements to be added or removed from both ends. It combines the features of a stack and a queue, allowing for insertion and deletion at both the front and rear. Deques can be used in various applications, such as implementing algorithms that require efficient insertion and deletion at both ends, such as sliding window algorithms, and palindrome checking.</t>
   </si>
   <si>
-    <t>priority_queues</t>
+    <t>What is Factorial Calculation?</t>
   </si>
   <si>
     <t>A priority queue is a data structure that assigns a priority to each element and allows for elements to be removed based on their priority. The element with the highest or lowest priority is removed first, depending on whether it is a max priority queue or a min priority queue. Priority queues are commonly used in applications that require processing elements based on their priority, such as scheduling tasks with different priorities, finding the shortest path in a graph, or simulating event-driven systems.</t>
   </si>
   <si>
-    <t>factorial_calculation</t>
+    <t>What is Fibonacci Series?</t>
   </si>
   <si>
     <t>Factorial calculation is the process of finding the product of all positive integers from 1 up to a given integer. It is denoted by the exclamation mark (!) symbol. For example, the factorial of 5 is calculated as 5! = 5 x 4 x 3 x 2 x 1 = 120. Factorial calculation is commonly used in various mathematical and statistical calculations, as well as in recursive algorithms, combinatorics, and probability calculations.</t>
   </si>
   <si>
-    <t>fibonacci_series</t>
+    <t>What are Adders?</t>
   </si>
   <si>
     <t>The Fibonacci series is a sequence of numbers in which each number is the sum of the two preceding numbers, starting from 0 and 1. The series typically starts with 0, 1, 1, 2, 3, 5, 8, 13, and so on. Fibonacci series is commonly used in various mathematical and computational applications, such as in generating Fibonacci spirals, modeling growth patterns, and optimizing algorithms, such as dynamic programming and memoization.</t>
   </si>
   <si>
-    <t>adders</t>
+    <t>What are Decoders?</t>
   </si>
   <si>
     <t>Adders are digital circuits used in computer hardware to perform addition of binary numbers. They can add two or more binary numbers and produce a sum output. Adders can be implemented using various techniques, such as half-adders, full-adders, ripple carry adders, carry-lookahead adders, and carry-skip adders. Adders are fundamental components used in arithmetic and logical operations in computer systems.</t>
   </si>
   <si>
-    <t>decoders</t>
+    <t>What are Encoders?</t>
   </si>
   <si>
     <t>Decoders are digital circuits used in computer hardware to convert encoded input data into a set of output signals. They are commonly used in address decoding, where they translate an address into a specific location in memory or a particular device. Decoders can be implemented using various techniques, such as binary decoders, BCD decoders, and priority encoders. Decoders are essential components used in computer systems for address decoding, data routing, and control signal generation.</t>
   </si>
   <si>
-    <t>encoders</t>
+    <t>What are Multiplexers?</t>
   </si>
   <si>
     <t>Encoders are digital circuits used in computer hardware to convert input data into a coded output representation. They are commonly used in data encoding, where they convert a set of input signals into a binary code or other encoded format. Encoders can be implemented using various techniques, such as priority encoders, binary encoders, and BCD encoders. Encoders are essential components used in computer systems for data encoding, signal transmission, and control signal generation.</t>
   </si>
   <si>
-    <t>multiplexers</t>
+    <t>What are Demultiplexers?</t>
   </si>
   <si>
     <t>Multiplexers, often abbreviated as mux, are digital circuits used in computer hardware to select one of several input signals and route it to a single output line. They are commonly used in data multiplexing, where they allow multiple signals to share a single transmission medium or storage location. Multiplexers can be implemented using various techniques, such as 2-to-1 multiplexers, 4-to-1 multiplexers, and n-to-1 multiplexers. Multiplexers are essential components used in computer systems for data routing, signal selection, and control signal generation.</t>
   </si>
   <si>
-    <t>demultiplexers</t>
+    <t>What are Binary Code Converters?</t>
   </si>
   <si>
     <t>Demultiplexers, often abbreviated as demux, are digital circuits used in computer hardware to route a single input signal to one of several output lines. They are commonly used in data demultiplexing, where they allow a single signal to be distributed to multiple destinations. Demultiplexers can be implemented using various techniques, such as 1-to-2 demultiplexers, 1-to-4 demultiplexers, and 1-to-n demultiplexers. Demultiplexers are essential components used in computer systems for data routing, signal distribution, and control signal generation.</t>
   </si>
   <si>
-    <t>binary_code_converters</t>
+    <t>What are Latches and Flip Flops?</t>
   </si>
   <si>
     <t>Binary code converters are digital circuits used in computer hardware to convert one type of binary code into another type of binary code. They can convert between different binary representations, such as binary to Gray code, binary to BCD, or BCD to binary. Binary code converters are commonly used in data encoding, decoding, and signal processing in computer systems.</t>
   </si>
   <si>
-    <t>latches_and_flip_flops</t>
+    <t>What are Shift Registers?</t>
   </si>
   <si>
     <t>Latches and flip flops are digital circuits used in computer hardware for storing and holding binary data. They are commonly used for sequential logic, where the output depends not only on the current inputs but also on the previous state. Latches and flip flops can be implemented using various techniques, such as D flip flops, JK flip flops, SR flip flops, and T flip flops. They are fundamental components used in computer systems for storing data, controlling timing, and synchronizing signals.</t>
   </si>
   <si>
-    <t>shift_registers</t>
+    <t>What are Asynchronous Counters?</t>
   </si>
   <si>
     <t>Shift registers are digital circuits used in computer hardware for shifting and storing data in a serial manner. They are commonly used for data storage, data manipulation, and data communication. Shift registers can be implemented using various techniques, such as serial-in, serial-out (SISO), parallel-in, serial-out (PISO), serial-in, parallel-out (SIPO), and parallel-in, parallel-out (PIPO). Shift registers are essential components used in computer systems for data processing, data transmission, and control signal generation.</t>
   </si>
   <si>
-    <t>asynchronous_counters</t>
+    <t>What are Mealy and Moore Machines?</t>
   </si>
   <si>
     <t>Asynchronous counters, also known as ripple counters, are digital circuits used in computer hardware for counting events or generating timing signals. They are commonly used for counting and timing applications where the output changes asynchronously with respect to the clock signal. Asynchronous counters can be implemented using various techniques, such as binary counters, decade counters, and up/down counters. They are widely used in computer systems for counting events, generating timing signals, and controlling system operations.</t>
   </si>
   <si>
-    <t>mealy_and_moore_machines</t>
+    <t>What are Synchronous Counters?</t>
   </si>
   <si>
     <t>Mealy and Moore machines are types of finite state machines (FSMs) used in computer hardware for designing sequential logic circuits. They are used for controlling system operations, generating control signals, and processing data based on the current state and input signals. Mealy machines produce output signals based on both the current state and input signals, while Moore machines produce output signals based only on the current state. Mealy and Moore machines are essential components used in computer systems for state-based control, data processing, and system operation.</t>
   </si>
   <si>
-    <t>synchronous_counters</t>
+    <t>What are State Minimization Techniques?</t>
   </si>
   <si>
     <t>Synchronous counters are digital circuits used in computer hardware for counting events or generating timing signals. They are synchronized with a clock signal, and the output changes simultaneously with the clock edge. Synchronous counters can be implemented using various techniques, such as binary counters, decade counters, and up/down counters. They are widely used in computer systems for counting events, generating timing signals, and controlling system operations.</t>
   </si>
   <si>
-    <t>state_minimization_techniques</t>
+    <t>What is Read Only Memory (ROM)?</t>
   </si>
   <si>
     <t>State minimization techniques are used in digital circuit design to optimize the number of states in a finite state machine (FSM). They reduce the complexity and size of the FSM by eliminating redundant or unreachable states. State minimization techniques, such as state assignment, state encoding, and state reduction, are used to improve the efficiency and performance of digital systems by minimizing the number of states needed to represent the system behavior.</t>
   </si>
   <si>
-    <t>read_only_memory</t>
+    <t>What is Programmable Array Logic (PAL)?</t>
   </si>
   <si>
     <t>Read Only Memory (ROM) is a type of computer memory that stores data permanently and cannot be modified after initial programming. It is used for storing firmware, BIOS, and other system-level software that needs to be retained even when the computer is powered off. ROM is non-volatile memory and is widely used in computer systems for storing critical system-level information.</t>
   </si>
   <si>
-    <t>programmable_array_logic</t>
+    <t>What is Programmable Logic Array (PLA)?</t>
   </si>
   <si>
     <t>Programmable Array Logic (PAL) is a type of digital logic device used in digital circuit design for implementing combinational logic functions. It consists of an array of programmable AND gates followed by programmable OR gates, allowing the designer to configure the logic functions based on specific requirements. PAL is a type of programmable logic device (PLD) and is commonly used in digital systems for implementing custom logic functions.</t>
   </si>
   <si>
-    <t>programmable_logic_array</t>
+    <t>What is Instruction Set Architecture (ISA)?</t>
   </si>
   <si>
     <t>Programmable Logic Array (PLA) is a type of digital logic device used in digital circuit design for implementing combinational and sequential logic functions. It consists of an array of programmable AND gates followed by programmable OR gates, along with programmable flip-flops, allowing the designer to configure both combinational and sequential logic functions. PLA is a type of programmable logic device (PLD) and is commonly used in digital systems for implementing custom logic functions.</t>
   </si>
   <si>
-    <t>instruction_set_architecture</t>
+    <t>What is Accumulator-based Architecture?</t>
   </si>
   <si>
     <t>Instruction Set Architecture (ISA) is a set of instructions and formats used by a computer's central processing unit (CPU) to execute operations or perform tasks. It defines the interface between the hardware and software of a computer system, including the instructions, data types, addressing modes, and memory organization. ISA plays a crucial role in determining the overall performance and functionality of a computer system.</t>
   </si>
   <si>
-    <t>accumulator_based</t>
+    <t>What is Stack-based Architecture?</t>
   </si>
   <si>
     <t>Accumulator-based architecture is a type of computer architecture where the CPU has a dedicated register called an accumulator that is used to store intermediate results during computation. The accumulator serves as a temporary storage location for arithmetic and logical operations, and the results are stored back in the accumulator. Accumulator-based architecture is simple and commonly used in early computer systems and microcontrollers.</t>
   </si>
   <si>
-    <t>stack_based</t>
+    <t>What is Register-Memory Architecture?</t>
   </si>
   <si>
     <t>Stack-based architecture is a type of computer architecture where the CPU uses a stack to store operands and results during computation. Instead of dedicated registers, operands are pushed onto the stack, and operations are performed using stack-based instructions. Stack-based architecture is used in some special-purpose processors and can simplify instruction decoding and register management.</t>
   </si>
   <si>
-    <t>register_memory</t>
+    <t>What is Register-Register Architecture?</t>
   </si>
   <si>
     <t>Register-Memory architecture is a type of computer architecture where the CPU has both registers and main memory for data storage. Registers are used for temporary storage of operands and results, while main memory serves as a larger, slower storage for data and instructions. Register-Memory architecture is commonly used in modern computer systems as it allows for faster data access and efficient use of registers for computation.</t>
   </si>
   <si>
-    <t>register_register</t>
+    <t>What are Instruction Encoding Techniques?</t>
   </si>
   <si>
     <t>Register-Register architecture is a type of computer architecture where the CPU uses registers for both operands and results during computation. Operations are performed directly between registers, and results are stored back in registers. Register-Register architecture is commonly used in modern computer systems as it allows for fast data processing and efficient use of registers for computation.</t>
   </si>
   <si>
-    <t>instruction_encoding</t>
+    <t>What is Computer Performance?</t>
   </si>
   <si>
     <t>Instruction encoding techniques refer to the methods used to represent and encode instructions in a computer system. This includes determining the format of instructions, specifying the opcode and operands, and defining the instruction set architecture. Instruction encoding techniques are crucial for efficient instruction execution and play a significant role in overall system performance.</t>
   </si>
   <si>
-    <t>computer_performance</t>
+    <t>What are Common Pitfalls in computer performance?</t>
   </si>
   <si>
     <t>Computer performance refers to the measurement of a computer system's ability to execute instructions and process data within a given time period. It is influenced by various factors, including CPU speed, memory capacity, storage capacity, and system architecture. Computer performance is a critical consideration in designing and optimizing computer systems for specific tasks or applications.</t>
   </si>
   <si>
-    <t>common_pitfalls</t>
+    <t>What is Amdahl's Law?</t>
   </si>
   <si>
     <t>Common pitfalls in computer performance include inefficient algorithms, poor memory management, excessive I/O operations, inefficient resource utilization, and suboptimal system configurations. These issues can negatively impact system performance and result in slow execution, high resource usage, and poor responsiveness. Identifying and addressing common pitfalls is essential for optimizing computer performance.</t>
   </si>
   <si>
-    <t>amdahls_law</t>
+    <t>What is Memory Hierarchy?</t>
   </si>
   <si>
     <t>Amdahl's Law is a formula used to estimate the potential speedup of a computer system by optimizing a portion of the system, while keeping the rest unchanged. It states that the overall speedup is limited by the fraction of the system that is optimized. Amdahl's Law is commonly used to understand the trade-offs and limitations of performance improvements in parallel computing systems.</t>
   </si>
   <si>
-    <t>memory_hierarchy</t>
+    <t>What is Cache Memory?</t>
   </si>
   <si>
     <t>Memory hierarchy refers to the organization of different levels of memory in a computer system, ranging from high-speed but small-capacity registers and caches to slower but larger-capacity main memory and secondary storage. Memory hierarchy is designed to optimize the trade-offs between speed, capacity, and cost, and plays a critical role in overall system performance.</t>
   </si>
   <si>
-    <t>cache_memory</t>
+    <t>What are Bus Standards?</t>
   </si>
   <si>
     <t>Cache memory is a small, high-speed memory that sits between the CPU and main memory in a computer system. It stores frequently accessed data and instructions to reduce the CPU's access time to main memory, thereby improving system performance. Cache memory is an important component of the memory hierarchy and is typically organized into multiple levels, such as L1, L2, and L3 caches.</t>
   </si>
   <si>
-    <t>bus_standards</t>
+    <t>What are Arbitration Schemes?</t>
   </si>
   <si>
     <t>Bus standards refer to the specifications and protocols used for communication between different hardware components in a computer system. Buses are used to transfer data, addresses, and control signals between CPU, memory, I/O devices, and other hardware components. Examples of bus standards include PCI (Peripheral Component Interconnect), USB (Universal Serial Bus), and SATA (Serial ATA). Bus standards play a crucial role in ensuring compatibility and interoperability among different hardware components.</t>
   </si>
   <si>
-    <t>arbitration_schemes</t>
+    <t>What is Programmed I/O?</t>
   </si>
   <si>
     <t>Arbitration schemes are used to manage access to shared resources, such as buses or memory, in a computer system. They determine how requests for access to shared resources are prioritized and granted. Common arbitration schemes include priority-based, round-robin, and token-based schemes. Arbitration schemes are crucial for managing concurrent access to shared resources and ensuring fair and efficient resource allocation.</t>
   </si>
   <si>
-    <t>programmed_io</t>
+    <t>What is Interrupt-Driven I/O?</t>
   </si>
   <si>
     <t>Programmed I/O is a method of input/output (I/O) operation in a computer system where the CPU directly controls the transfer of data between the CPU and I/O devices. In programmed I/O, the CPU executes I/O instructions to read from or write to I/O devices, and the CPU is responsible for managing the entire I/O operation. Programmed I/O is simple but can be inefficient as it requires the CPU to wait for I/O operations to complete.</t>
   </si>
   <si>
-    <t>interrupt_driven_io</t>
+    <t>What is Direct Memory Access (DMA)?</t>
   </si>
   <si>
     <t>Interrupt-driven I/O is a method of input/output (I/O) operation in a computer system where I/O devices generate interrupts to notify the CPU when they are ready to send or receive data. When an interrupt is received, the CPU suspends its current execution and jumps to an interrupt service routine (ISR) to handle the I/O operation. Interrupt-driven I/O allows the CPU to perform other tasks while waiting for I/O operations to complete, improving overall system efficiency.</t>
   </si>
   <si>
-    <t>direct_memory_access</t>
+    <t>What is CAP Theorem?</t>
   </si>
   <si>
     <t>Direct Memory Access (DMA) is a technique that allows I/O devices to transfer data directly to or from main memory without involving the CPU. DMA offloads the CPU from the time-consuming task of transferring data, improving system performance. DMA controllers manage the data transfer process, and the CPU is only involved in setting up the DMA operation and handling interrupts when the transfer is complete.</t>
   </si>
   <si>
-    <t>cap_theorem</t>
+    <t>What are Distributed Databases?</t>
   </si>
   <si>
     <t>CAP Theorem, also known as Brewer's Theorem, states that in a distributed database system, it is impossible to simultaneously guarantee consistency, availability, and partition tolerance. According to CAP Theorem, in the event of a network partition, a distributed database system must choose between maintaining consistency (all nodes have the same data), availability (all requests receive a response), or partition tolerance (system continues to operate despite network failures). This theorem has important implications for the design and trade-offs in distributed databases.</t>
   </si>
   <si>
-    <t>distributed_databases</t>
+    <t>What are Decision Support Systems?</t>
   </si>
   <si>
     <t>Distributed databases are databases that are spread across multiple nodes or servers in a computer network. Each node may store a subset of data and may have its own processing power. Distributed databases allow for scalable and fault-tolerant data storage and processing, as well as efficient data access and retrieval. However, managing consistency, availability, and partition tolerance can be challenging in distributed databases, and various techniques and algorithms are used to ensure data integrity and reliability.</t>
   </si>
   <si>
-    <t>decision_support_systems</t>
+    <t>What is Data Warehousing?</t>
   </si>
   <si>
     <t>Decision Support Systems (DSS) are computer-based systems that provide analytical tools and information to support decision-making processes in organizations. DSS can analyze large amounts of data, generate reports, and provide interactive interfaces for decision-makers to explore different scenarios and make informed decisions. DSS are commonly used in business, finance, healthcare, and other domains where complex decisions need to be made based on data analysis and modeling.</t>
   </si>
   <si>
-    <t>data_warehousing</t>
+    <t>What is Instruction Level Parallelism?</t>
   </si>
   <si>
     <t>Data warehousing is the process of collecting, storing, and managing large volumes of data from different sources in a central repository, called a data warehouse. Data warehouses are designed to support efficient querying, analysis, and reporting of data for decision-making purposes. Data warehousing involves data extraction, transformation, and loading (ETL) processes, as well as data modeling and indexing techniques to optimize data retrieval and analysis.</t>
   </si>
   <si>
-    <t>instruction_level_parallelism</t>
+    <t>What are Pipeline Hazards?</t>
   </si>
   <si>
     <t>Instruction Level Parallelism (ILP) refers to the ability of a processor to execute multiple instructions in parallel, thereby improving the overall throughput of the processor. ILP is achieved through techniques such as instruction pipelining, superscalar execution, and out-of-order execution, which allow multiple instructions to be fetched, decoded, and executed simultaneously.</t>
   </si>
   <si>
-    <t>pipeline_hazards</t>
+    <t>What is Data Level Parallelism?</t>
   </si>
   <si>
     <t>Pipeline hazards are situations that can occur in pipelined processors where the normal flow of instructions through the pipeline is disrupted, resulting in reduced performance. Pipeline hazards can be categorized into three types: structural hazards, data hazards, and control hazards. Structural hazards occur when multiple instructions require the same hardware resource, data hazards occur when instructions depend on the results of previous instructions, and control hazards occur when the outcome of a conditional branch instruction is not known until later in the pipeline.</t>
   </si>
   <si>
-    <t>data_level_parallelism</t>
+    <t>What is Branch Prediction?</t>
   </si>
   <si>
     <t>Data Level Parallelism refers to the ability of a processor to perform multiple operations on different data elements simultaneously. Data Level Parallelism can be achieved through techniques such as vector processing, SIMD (Single Instruction, Multiple Data) instructions, and parallel processing on multi-core processors or GPUs. Data Level Parallelism allows for efficient processing of large amounts of data in parallel, resulting in improved performance and throughput.</t>
   </si>
   <si>
-    <t>branch_prediction</t>
+    <t>What are Multiple Issue Architectures?</t>
   </si>
   <si>
     <t>Branch prediction is a technique used in modern processors to optimize instruction execution in the presence of conditional branches. Branches are instructions that can change the flow of program execution, and predicting the outcome of a branch before it is actually resolved can improve instruction fetch and execution efficiency. Techniques such as static branch prediction (based on instruction statistics), dynamic branch prediction (based on past execution behavior), and tournament branch prediction (combining multiple prediction techniques) are commonly used to reduce the performance impact of branches in pipelined processors.</t>
   </si>
   <si>
-    <t>multiple_issue_architectures</t>
+    <t>What are Software Process Models?</t>
   </si>
   <si>
     <t>Multiple Issue Architectures, also known as Superscalar Architectures, refer to processors that can issue and execute multiple instructions per clock cycle. These processors can analyze instruction dependencies and resource availability to dynamically issue multiple instructions for execution in parallel. Multiple Issue Architectures can improve the instruction-level parallelism and overall throughput of the processor, allowing for more efficient instruction execution and higher performance.</t>
   </si>
   <si>
-    <t>software_process_models</t>
+    <t>What is Requirements Engineering Process?</t>
   </si>
   <si>
     <t>Software Process Models are abstract representations of the steps, activities, and tasks involved in developing software. They provide a framework for managing the software development process, from initial requirements gathering to final software delivery. Examples of software process models include Waterfall, Agile, Scrum, Spiral, and Iterative models, each with its own set of characteristics, advantages, and disadvantages.</t>
   </si>
   <si>
-    <t>requirements_engineering_process</t>
+    <t>What is Planning and Scheduling in software development?</t>
   </si>
   <si>
     <t>Requirements Engineering Process is the systematic approach to identifying, analyzing, documenting, and managing the requirements of a software system. It involves activities such as gathering, validating, and prioritizing user requirements, defining system requirements, and establishing traceability between requirements and system components. Requirements Engineering Process is critical for ensuring that software systems are developed to meet the needs of their intended users and stakeholders.</t>
   </si>
   <si>
-    <t>planning_and_scheduling</t>
+    <t>What is Risk Management in software development?</t>
   </si>
   <si>
     <t>Planning and Scheduling in software development involves defining the scope, objectives, and timeline of a software project, and allocating resources, tasks, and responsibilities to meet project goals. It includes activities such as creating project plans, defining milestones, estimating effort, and creating project schedules. Planning and Scheduling are essential for effective project management, resource allocation, and tracking progress towards project completion.</t>
   </si>
   <si>
-    <t>risk_management</t>
+    <t>What is Software Quality Assurance?</t>
   </si>
   <si>
     <t>Risk Management in software development involves identifying, assessing, and mitigating risks that could potentially impact the success of a software project. It includes activities such as risk identification, risk analysis, risk prioritization, and risk mitigation planning. Risk Management helps in proactively identifying potential issues and taking appropriate measures to minimize their impact on the project's timeline, budget, and quality.</t>
   </si>
   <si>
-    <t>software_quality_assurance</t>
+    <t>What is the COCOMO model?</t>
   </si>
   <si>
     <t>Software Quality Assurance (SQA) is a set of systematic activities that ensure that software products and processes meet specified quality standards. SQA involves activities such as defining quality requirements, creating and implementing quality plans, conducting quality audits, and verifying adherence to established quality processes. SQA aims to prevent defects, improve software quality, and ensure that software products are reliable, efficient, and meet customer expectations.</t>
   </si>
   <si>
-    <t>cocomo_model</t>
+    <t>What is Software Maintenance?</t>
   </si>
   <si>
     <t>The COCOMO (Constructive Cost Model) is a software cost estimation model that helps in estimating the effort, time, and resources required to develop a software system. It is based on various factors such as the size of the project, complexity, development team's experience, and other project-specific parameters. COCOMO model is widely used for estimating software development costs and resource allocation in software projects.</t>
   </si>
   <si>
-    <t>software_maintenance</t>
+    <t>What is the OSI reference model?</t>
   </si>
   <si>
     <t>Software Maintenance refers to the activities performed after the delivery of a software system to ensure its proper functioning, performance, and reliability over time. It involves activities such as bug fixing, enhancements, updates, and optimization of the software system. Software Maintenance is a crucial part of the software development lifecycle as it helps in improving the longevity and sustainability of software systems.</t>
   </si>
   <si>
-    <t>osi_reference_model</t>
+    <t>What is the TCP/IP reference model?</t>
   </si>
   <si>
     <t>The OSI (Open Systems Interconnection) reference model is a conceptual model that describes the communication protocols used in computer networks. It is based on a layered architecture that defines seven layers, each responsible for specific network functions. The OSI reference model provides a common framework for understanding and designing network protocols, allowing interoperability between different network systems and devices.</t>
   </si>
   <si>
-    <t>tcp_ip_reference_model</t>
+    <t>What is Software Defined Networking (SDN)?</t>
   </si>
   <si>
     <t>The TCP/IP (Transmission Control Protocol/Internet Protocol) reference model is a widely used protocol suite for computer networks and the Internet. It defines a set of communication protocols that enable data transmission over networks. The TCP/IP reference model is based on a four-layered architecture that includes the Application, Transport, Internet, and Network Access layers. It is the foundation of modern networking and is used for communication between devices connected to the Internet.</t>
   </si>
   <si>
-    <t>software_defined_networking</t>
+    <t>What are Virtual Network Functions (VNFs)?</t>
   </si>
   <si>
     <t>Software Defined Networking (SDN) is an approach to network management that separates the control plane from the data plane in a network. It allows network administrators to programmatically control and manage network resources using software-based controllers, decoupling the network's control logic from the physical infrastructure. SDN offers flexibility, scalability, and programmability in managing networks, making it ideal for modern network architectures.</t>
   </si>
   <si>
-    <t>virtual_network_functions</t>
+    <t>What is IP addressing?</t>
   </si>
   <si>
     <t>Virtual Network Functions (VNFs) are software-based network functions that can be run on virtualized infrastructure, such as virtual machines or containers. VNFs replace traditional network appliances, such as routers, switches, and firewalls, with software-based counterparts that can be deployed, scaled, and managed dynamically. VNFs offer flexibility, agility, and cost savings in network management, allowing network operators to virtualize and automate network functions.</t>
   </si>
   <si>
-    <t>ip_addressing</t>
+    <t>What is IP subnetting?</t>
   </si>
   <si>
     <t>IP addressing is a system used to uniquely identify devices on a computer network. It involves assigning a unique IP (Internet Protocol) address to each device, such as a computer, server, or router, that participates in the network. IP addresses are used for routing data packets across networks, enabling communication between devices. IPv4 and IPv6 are the two most commonly used IP addressing schemes.</t>
   </si>
   <si>
-    <t>ip_subnetting</t>
+    <t>What is network routing?</t>
   </si>
   <si>
     <t>IP subnetting is the process of dividing a larger IP network into smaller subnets or subnetworks. It involves allocating a portion of the IP address space for each subnet, which allows for more efficient use of IP addresses and better network management. Subnetting helps in reducing network congestion, improving security, and optimizing network performance.</t>
   </si>
   <si>
-    <t>network_routing</t>
+    <t>What is Computational Intelligence?</t>
   </si>
   <si>
     <t>Network routing is the process of selecting the optimal path for data packets to travel from the source to the destination in a computer network. It involves making decisions on how to forward data packets based on routing tables, protocols, and network conditions. Network routing determines the most efficient and reliable path for data packets, ensuring timely delivery and efficient use of network resources.</t>
   </si>
   <si>
-    <t>computational_intelligence</t>
+    <t>What are Searching Methodologies?</t>
   </si>
   <si>
     <t>Computational Intelligence is a field of study that combines concepts from computer science, artificial intelligence, and cognitive science to develop intelligent algorithms and systems. It encompasses various techniques, such as fuzzy logic, neural networks, evolutionary algorithms, and swarm intelligence, to solve complex problems that are not easily solved by traditional computing methods.</t>
   </si>
   <si>
-    <t>searching_methodologies</t>
+    <t>What is First-Order Logic?</t>
   </si>
   <si>
     <t>Searching Methodologies are techniques used in computer science and artificial intelligence to find optimal solutions to problems within a search space. They involve systematically exploring a search space to find the most desirable solution based on predefined criteria. Examples of searching methodologies include depth-first search, breadth-first search, A* algorithm, and hill climbing.</t>
   </si>
   <si>
-    <t>first_order_logic</t>
+    <t>What are Genetic Algorithms?</t>
   </si>
   <si>
     <t>First-Order Logic, also known as Predicate Logic, is a formal language used in mathematical logic and computer science to express relationships between objects and make logical inferences. It extends propositional logic by introducing quantifiers, such as 'forall' and 'exists', to express statements about groups of objects and their properties. First-Order Logic is widely used in areas such as knowledge representation, automated reasoning, and theorem proving.</t>
   </si>
   <si>
-    <t>genetic_algorithms</t>
+    <t>What are Evolutionary Strategies?</t>
   </si>
   <si>
     <t>Genetic Algorithms are a type of optimization algorithm inspired by the process of natural selection. They are used in computer science and artificial intelligence to find approximate solutions to optimization problems. Genetic Algorithms mimic the process of natural selection by evolving a population of candidate solutions over multiple generations through genetic operations such as mutation, crossover, and selection. Genetic Algorithms are used in a wide range of applications, including optimization, scheduling, and machine learning.</t>
   </si>
   <si>
-    <t>evolutionary_strategies</t>
+    <t>What are Kernels?</t>
   </si>
   <si>
     <t>Evolutionary Strategies are a class of optimization algorithms that are based on the principles of natural selection and evolution. They are used in computer science and artificial intelligence to find approximate solutions to optimization problems. Evolutionary Strategies use mutation and selection operators to evolve a population of candidate solutions over multiple generations, with the goal of improving the fitness of the solutions. Evolutionary Strategies are widely used in optimization, parameter tuning, and feature selection in machine learning and other areas.</t>
   </si>
   <si>
-    <t>kernels</t>
+    <t>What are Processes?</t>
   </si>
   <si>
     <t>Kernels are the central components of an operating system that manage and facilitate communication between hardware and software components. They provide essential services such as process management, memory management, device drivers, and system calls. Kernels can be classified into different types, such as monolithic kernels, microkernels, and hybrid kernels, based on their architecture and design philosophy.</t>
   </si>
   <si>
-    <t>processes</t>
+    <t>What are Threads?</t>
   </si>
   <si>
     <t>Processes are instances of a program in execution, managed by an operating system. They are isolated from each other and have their own memory space, file descriptors, and other system resources. Processes can communicate with each other through inter-process communication (IPC) mechanisms, and they can be in different states, such as running, waiting, or terminated. Processes are a fundamental concept in operating systems for managing and executing concurrent tasks.</t>
   </si>
   <si>
-    <t>threads</t>
+    <t>What is Deadlock?</t>
   </si>
   <si>
     <t>Threads are lightweight, independent sequences of instructions within a process that can be executed concurrently by a single CPU. Threads share the same memory space and file descriptors with their parent process, allowing for efficient communication and coordination. Threads can be used to achieve parallelism and improve performance in multi-core processors. There are various types of threads, such as user-level threads and kernel-level threads, with different levels of thread management and support from the operating system.</t>
   </si>
   <si>
-    <t>deadlock</t>
+    <t>What are Scheduling Algorithms?</t>
   </si>
   <si>
     <t>Deadlock is a situation in a concurrent system where two or more processes or threads are waiting for each other to release a resource, causing a permanent halt in the progress of the system. Deadlock can occur when processes or threads compete for resources, such as shared memory, files, or hardware devices, and acquire them in an incompatible order or with insufficient synchronization. Deadlock can lead to system instability and performance degradation, and it requires careful handling through techniques such as resource allocation, scheduling, and deadlock detection and recovery.</t>
   </si>
   <si>
-    <t>scheduling_algorithms</t>
+    <t>What is Memory Management?</t>
   </si>
   <si>
     <t>Scheduling Algorithms are algorithms used by an operating system to determine the order in which processes or threads are executed on a CPU. Scheduling algorithms play a critical role in managing system resources, maximizing CPU utilization, minimizing response time, and ensuring fairness among processes or threads. There are various types of scheduling algorithms, such as First-Come, First-Served (FCFS), Shortest Job Next (SJN), Round Robin (RR), and Priority-based, each with its own advantages, disadvantages, and suitability for different types of systems and workloads.</t>
   </si>
   <si>
-    <t>memory_management</t>
+    <t>What is Secondary Storage Management?</t>
   </si>
   <si>
     <t>Memory Management is the process of allocating and managing the primary memory (RAM) in a computer system. It involves techniques such as memory allocation, deallocation, and swapping to efficiently utilize the available memory for executing processes or threads, managing memory fragmentation, and providing memory protection to prevent unauthorized access.</t>
   </si>
   <si>
-    <t>secondary_storage_management</t>
+    <t>What is File Management?</t>
   </si>
   <si>
     <t>Secondary Storage Management involves the management of non-volatile storage devices, such as hard disk drives and solid-state drives, in a computer system. It includes tasks such as file system creation, partitioning, formatting, and managing file storage, retrieval, and deletion. Secondary storage management also involves techniques such as caching, buffering, and virtual memory to optimize data storage and retrieval.</t>
   </si>
   <si>
-    <t>file_management</t>
+    <t>What is I/O Management?</t>
   </si>
   <si>
     <t>File Management is the process of organizing, storing, and managing files in a computer system. It involves tasks such as file creation, deletion, renaming, copying, moving, and organizing files into directories or folders. File management also includes file access permissions, file sharing, and file system integrity and consistency checking to ensure reliable and secure storage and retrieval of data.</t>
   </si>
   <si>
-    <t>io_management</t>
+    <t>What is Disk Scheduling?</t>
   </si>
   <si>
     <t>I/O Management is the process of managing input and output operations in a computer system. It involves tasks such as device driver management, device communication, and data transfer between the CPU, memory, and I/O devices, such as keyboards, mice, printers, and network interfaces. I/O management also includes buffering, caching, and error handling mechanisms to ensure reliable and efficient I/O operations.</t>
   </si>
   <si>
-    <t>disk_scheduling</t>
+    <t>What is Internal Bus Architecture?</t>
   </si>
   <si>
     <t>Disk Scheduling is the process of determining the order in which disk I/O requests are serviced by a disk drive to optimize the disk access time and throughput. Disk scheduling algorithms determine the most efficient way to access data on a disk by reducing the seek time, rotational latency, and head movement. Common disk scheduling algorithms include First-Come, First-Served (FCFS), Shortest Seek Time First (SSTF), SCAN, C-SCAN, and LOOK, each with its own advantages, disadvantages, and suitability for different types of disk workloads.</t>
   </si>
   <si>
-    <t>internal_bus_architecture</t>
+    <t>What are Pin Functions?</t>
   </si>
   <si>
     <t>Internal Bus Architecture refers to the design and organization of buses within a microprocessor or microcontroller system. It includes the data bus, address bus, and control bus, which are used for communication and data transfer between different components of the system, such as the CPU, memory, and I/O devices.</t>
   </si>
   <si>
-    <t>pin_functions</t>
+    <t>What are Memory Addressing Schemes?</t>
   </si>
   <si>
     <t>Pin Functions refer to the various functions and roles of pins or terminals in a microprocessor or microcontroller. Pins are used for communication, control, and data transfer between the microprocessor and external components, such as memory, I/O devices, and other peripherals. Pin functions are specified by the microprocessor's architecture and are used for tasks such as addressing, data transfer, interrupts, and control signals.</t>
   </si>
   <si>
-    <t>memory_addressing_schemes</t>
+    <t>What is Bus Buffering?</t>
   </si>
   <si>
     <t>Memory Addressing Schemes are techniques used to access and identify specific locations or addresses in memory for reading from or writing to. Common memory addressing schemes include direct addressing, indirect addressing, indexed addressing, and register-indirect addressing. These schemes determine how memory addresses are calculated or referenced in microprocessor instructions.</t>
   </si>
   <si>
-    <t>bus_buffering</t>
+    <t>What are Bus Cycles?</t>
   </si>
   <si>
     <t>Bus Buffering is the use of buffer circuits to isolate and amplify the signals transmitted over buses in a microprocessor or microcontroller system. Bus buffering helps to improve signal integrity, minimize noise, and reduce the load on the driving and receiving components connected to the bus. Bus buffers are typically used to isolate the CPU from other components, such as memory and I/O devices.</t>
   </si>
   <si>
-    <t>bus_cycles</t>
+    <t>What is a Clock Generation Circuit?</t>
   </si>
   <si>
     <t>Bus Cycles refer to the series of events that occur during the transfer of data or instructions over a bus in a microprocessor or microcontroller system. Bus cycles typically involve several stages, such as address setup, address hold, data setup, data hold, and control signals, which are synchronized by the system clock. Bus cycles determine the timing and coordination of data transfers and operations in a microprocessor system.</t>
   </si>
   <si>
-    <t>clock_generation_circuit</t>
+    <t>What is a Reset Circuit?</t>
   </si>
   <si>
     <t>A Clock Generation Circuit is a circuit that generates the clock signal used to synchronize the operations and timing of a microprocessor or microcontroller system. The clock signal is typically generated by an oscillator circuit that generates a stable and precise clock frequency, which is used to control the timing of instructions, data transfers, and other operations in the system.</t>
   </si>
   <si>
-    <t>reset_circuit</t>
+    <t>What is Memory Interfacing?</t>
   </si>
   <si>
     <t>A Reset Circuit is a circuit that is responsible for initializing and resetting the microprocessor or microcontroller system to a known state when the system is powered on or when a reset signal is received. The reset circuit typically clears the system's registers, sets the program counter to a predefined value, and initializes the system's internal states to ensure a known starting state for proper system operation.</t>
   </si>
   <si>
-    <t>memory_interfacing</t>
+    <t>What is Basic I/O Interface?</t>
   </si>
   <si>
     <t>Memory Interfacing is the process of connecting and communicating with different types of memory devices, such as RAM, ROM, and cache, in a microprocessor or microcontroller system. This involves addressing, reading from, and writing to memory devices, as well as managing data transfer and synchronization between the microprocessor and memory devices.</t>
   </si>
   <si>
-    <t>basic_io_interface</t>
+    <t>What is a Programmable Peripheral Interface?</t>
   </si>
   <si>
     <t>Basic I/O Interface refers to the circuitry and protocols used to facilitate input and output (I/O) operations between a microprocessor or microcontroller and external devices, such as sensors, actuators, and displays. Basic I/O interfaces typically include I/O ports, registers, and control logic that enable the microprocessor to send and receive data to and from external devices.</t>
   </si>
   <si>
-    <t>programmable_peripheral_interface</t>
+    <t>What is a Programmable Interval Timer?</t>
   </si>
   <si>
     <t>A Programmable Peripheral Interface (PPI) is a versatile device that can be programmed to perform various input/output (I/O) functions in a microprocessor or microcontroller system. PPIs typically provide multiple programmable I/O ports, timers, and interrupt capabilities, allowing for flexible and customizable I/O operations with external devices.</t>
   </si>
   <si>
-    <t>programmable_interval_timer</t>
+    <t>What are Hardware Interrupts?</t>
   </si>
   <si>
     <t>A Programmable Interval Timer (PIT) is a hardware device that can be programmed to generate accurate time intervals or delays in a microprocessor or microcontroller system. PITs are commonly used for tasks such as timing events, generating periodic interrupts, and controlling time-sensitive operations in a system.</t>
   </si>
   <si>
-    <t>hardware_interrupts</t>
+    <t>What is a Programmable Interrupt Controller?</t>
   </si>
   <si>
     <t>Hardware Interrupts are signals generated by external devices, such as I/O devices or timers, to interrupt the normal execution of a microprocessor or microcontroller program. Hardware interrupts are used to trigger the microprocessor to stop its current operation and respond to the interrupt request, allowing for real-time and asynchronous handling of external events or inputs.</t>
   </si>
   <si>
-    <t>programmable_interrupt_controller</t>
+    <t>What are DMA Operations?</t>
   </si>
   <si>
     <t>A Programmable Interrupt Controller (PIC) is a hardware device that manages and prioritizes multiple hardware interrupts in a microprocessor or microcontroller system. PICs allow for efficient handling of multiple interrupt requests, prioritization of interrupts, and customization of interrupt handling routines.</t>
   </si>
   <si>
-    <t>dma_operations</t>
+    <t>What is the difference between Training and Testing in machine learning?</t>
   </si>
   <si>
     <t>DMA (Direct Memory Access) Operations refer to the capability of a microprocessor or microcontroller system to transfer data directly between memory and I/O devices without involving the CPU in the data transfer process. DMA operations are used to offload data transfer tasks from the CPU, allowing for more efficient and faster data transfer rates.</t>
   </si>
   <si>
-    <t>training_vs_testing</t>
+    <t>What is the Theory of Generalization in machine learning?</t>
   </si>
   <si>
     <t>Training is the phase in machine learning where a model is trained on a labeled dataset to learn patterns and relationships from the data. Testing, on the other hand, is the phase where the trained model is evaluated on a separate, unseen dataset to measure its performance and generalization ability.</t>
   </si>
   <si>
-    <t>theory_of_generalization</t>
+    <t>What is VC Dimension in machine learning?</t>
   </si>
   <si>
     <t>The Theory of Generalization in machine learning studies how well a model can perform on unseen data after being trained on a limited dataset. It involves understanding the tradeoff between model complexity and performance, as well as the factors that affect a model's ability to generalize well to new data.</t>
   </si>
   <si>
-    <t>vc_dimension</t>
+    <t>What are Generalization Bounds in machine learning?</t>
   </si>
   <si>
     <t>VC (Vapnik-Chervonenkis) Dimension is a measure of the capacity or complexity of a machine learning model. It represents the maximum number of points that a model can shatter or perfectly fit in a binary classification problem. VC Dimension is used to analyze the generalization ability and complexity of a model.</t>
   </si>
   <si>
-    <t>generalization_bounds</t>
+    <t>What is Bias-Variance Tradeoff in machine learning?</t>
   </si>
   <si>
     <t>Generalization Bounds are mathematical bounds that provide an upper limit on the expected difference between a model's training error and its true error on unseen data. These bounds help to estimate the expected performance of a model on unseen data and provide insights into the model's generalization ability.</t>
   </si>
   <si>
-    <t>bias_variance_tradeoff</t>
+    <t>What is Stochastic Gradient Descent (SGD) in machine learning?</t>
   </si>
   <si>
     <t>Bias-Variance Tradeoff is a concept in machine learning that represents the balance between a model's bias and variance. Bias refers to the error introduced by approximating real-world data with a simplified model, while variance represents the sensitivity of the model to variations in the training data. Finding the right balance between bias and variance is crucial for building a well-performing model.</t>
   </si>
   <si>
-    <t>stochastic_gradient_descent</t>
+    <t>What is the Backpropagation Algorithm in machine learning?</t>
   </si>
   <si>
     <t>Stochastic Gradient Descent (SGD) is an optimization algorithm commonly used in machine learning for training models. It is a variant of the gradient descent algorithm that updates the model parameters based on a single data point or a small subset of data points at a time, making it computationally efficient for large datasets. SGD is widely used in training deep neural networks and other large-scale machine learning models.</t>
   </si>
   <si>
-    <t>backpropagation_algorithm</t>
+    <t>Explain Backpropagation Algorithm.</t>
   </si>
   <si>
     <t>The Backpropagation Algorithm is a widely used optimization algorithm for training artificial neural networks. It is a supervised learning algorithm that uses a gradient-based approach to update the model weights based on the error between the predicted output and the actual output. Backpropagation calculates the gradient of the error with respect to the model weights and uses it to adjust the weights iteratively during the training process.</t>
   </si>
   <si>
+    <t>context</t>
+  </si>
+  <si>
     <t>text response</t>
-  </si>
-  <si>
-    <t>context</t>
   </si>
 </sst>
 </file>
@@ -1405,24 +1411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28CD9A-18EF-4243-A089-B23F7D4E8330}">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="255.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.44140625" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,36 +1437,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1614,175 +1621,175 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1797,7 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1805,7 @@
         <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1821,7 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1829,7 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1837,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1845,7 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1853,7 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1861,7 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1869,7 @@
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1877,7 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1893,7 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1901,7 @@
         <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1909,7 @@
         <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1917,7 @@
         <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1925,7 @@
         <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1933,7 @@
         <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1941,7 @@
         <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1949,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1957,7 @@
         <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1965,7 @@
         <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1973,7 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1981,7 @@
         <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1989,7 @@
         <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1997,7 @@
         <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2005,7 @@
         <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2013,7 @@
         <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2021,7 @@
         <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2029,7 @@
         <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2037,7 @@
         <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2045,7 @@
         <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,7 +2053,7 @@
         <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2061,7 @@
         <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2069,7 @@
         <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2077,7 @@
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2085,7 @@
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2093,7 @@
         <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2101,7 @@
         <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2109,7 @@
         <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2117,7 @@
         <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2125,7 @@
         <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2133,7 @@
         <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2141,7 @@
         <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2149,7 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2157,7 @@
         <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2165,7 @@
         <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2173,7 @@
         <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2181,7 @@
         <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2189,7 @@
         <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2197,7 @@
         <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2205,7 @@
         <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2213,7 @@
         <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2221,7 @@
         <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2229,7 @@
         <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2237,7 @@
         <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2245,7 @@
         <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2253,7 @@
         <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2261,7 @@
         <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2269,7 @@
         <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2277,7 @@
         <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2285,7 @@
         <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2293,7 @@
         <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2301,7 @@
         <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2309,7 @@
         <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,7 +2317,7 @@
         <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2325,7 @@
         <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2333,7 @@
         <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2341,7 @@
         <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2349,7 @@
         <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2357,7 @@
         <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2365,7 @@
         <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2373,7 @@
         <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2381,7 @@
         <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2389,7 @@
         <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2397,7 @@
         <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2405,7 @@
         <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2413,7 @@
         <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2421,7 @@
         <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2429,7 @@
         <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2437,7 @@
         <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2445,7 @@
         <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2453,7 @@
         <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2454,7 +2461,7 @@
         <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2469,7 @@
         <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +2477,7 @@
         <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2485,7 @@
         <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2493,7 @@
         <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2501,7 @@
         <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2509,7 @@
         <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +2517,7 @@
         <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2525,7 @@
         <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2533,7 @@
         <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +2541,7 @@
         <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2549,7 @@
         <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +2557,7 @@
         <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +2565,7 @@
         <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2573,7 @@
         <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2581,7 @@
         <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +2589,7 @@
         <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +2597,7 @@
         <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +2605,7 @@
         <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2613,7 @@
         <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2621,7 @@
         <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +2629,7 @@
         <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2637,7 @@
         <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2645,7 @@
         <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +2653,7 @@
         <v>303</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2661,7 @@
         <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,7 +2669,7 @@
         <v>307</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2670,7 +2677,7 @@
         <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2685,7 @@
         <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2693,7 @@
         <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2701,7 @@
         <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2709,7 @@
         <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2717,7 @@
         <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2725,7 @@
         <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2733,7 @@
         <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2741,7 @@
         <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2749,7 @@
         <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2757,7 @@
         <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2765,7 @@
         <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,7 +2773,7 @@
         <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2774,7 +2781,7 @@
         <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2789,7 @@
         <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2797,7 @@
         <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2805,12 @@
         <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
